--- a/biology/Zoologie/Battus_(papillon)/Battus_(papillon).xlsx
+++ b/biology/Zoologie/Battus_(papillon)/Battus_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Battus regroupe des lépidoptères (papillons) de la famille des Papilionidae et de la sous-famille des Papilioninae qui résident tous en Amérique du Sud et au nord jusqu'au Mexique.
 </t>
@@ -511,19 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Battus a été décrit par le naturaliste italien Scopoli en 1777[1].
-L'espèce type pour le genre est Battus polydamas (Linnaeus, 1758).
-Synonymie
-Laertias Hübner, [1819] [2]
-Ithoballus Hübner, [1819] [3]
-Battuosa Möhn, 1999
-Laertiades Doubleday, [1846] [4]
-Laertias (Papilioninae)  Moore, [1881] [5]
-Ithobalus Dyar, 1903 [6]
-Battus (Battiti) Möhn, 1999[7],
-Battus (Battina)  [8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Battus a été décrit par le naturaliste italien Scopoli en 1777.
+L'espèce type pour le genre est Battus polydamas (Linnaeus, 1758).</t>
         </is>
       </c>
     </row>
@@ -548,10 +553,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laertias Hübner,  
+Ithoballus Hübner,  
+Battuosa Möhn, 1999
+Laertiades Doubleday,  
+Laertias (Papilioninae)  Moore,  
+Ithobalus Dyar, 1903 
+Battus (Battiti) Möhn, 1999,
+Battus (Battina)  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battus_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espèces classées par sous-genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le sous-genre  Battus
 Sous-groupe Philenor:
@@ -569,36 +619,38 @@
 Battus eracon (Godman &amp; Salvin, 1897)
 Battus ingenuus (Dyar, 1907)
 Battus laodamas (C. &amp; R. Felder, 1859)
-Battus lycidas (Cramer, [1777])
+Battus lycidas (Cramer, )
 Battus polystictus (Butler, 1874)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Battus_(papillon)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Battus_(papillon)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus belus (Cramer, 1777); dans le nord de l'Amérique du Sud.
 Battus belus belus
@@ -619,7 +671,7 @@
 Battus laodamas copanae (Reakirt, 1863)
 Battus laodamas iopas (Godman &amp; Salvin, 1897)
 Battus laodamas rhipidius Rothschild &amp; Jordan, 1906 ;
-Battus lycidas (Cramer, [1777]); au Mexique, Bolivie, Venezuela, Équateur.
+Battus lycidas (Cramer, ); au Mexique, Bolivie, Venezuela, Équateur.
 Battus madyes (Doubleday, 1846); sur la côte ouest de l'Amérique du Sud.
 Battus madyes madyes
 Battus madyes adloni (Ehrmann, 1926)
